--- a/Feature List.xlsx
+++ b/Feature List.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Thanksgiving Card</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>功能</t>
   </si>
@@ -77,7 +74,7 @@
     <t>自定义背景图片</t>
   </si>
   <si>
-    <t>可上传，检测分辨率（这个好像不能做，没有服务器）</t>
+    <t>可上传，检测分辨率</t>
   </si>
   <si>
     <t>更换文字</t>
@@ -126,6 +123,132 @@
   </si>
   <si>
     <t>在预设样式库里选择小物件，随机拖拽到自定义位置</t>
+  </si>
+  <si>
+    <t>贺卡发送</t>
+  </si>
+  <si>
+    <t>发送到邮件</t>
+  </si>
+  <si>
+    <t>分享到facebook</t>
+  </si>
+  <si>
+    <t>点击按钮，分享到facebook，可点击查看</t>
+  </si>
+  <si>
+    <t>分享到twitter</t>
+  </si>
+  <si>
+    <t>保存到本地</t>
+  </si>
+  <si>
+    <t>将html文件保存成静态图片到本地</t>
+  </si>
+  <si>
+    <t>贺卡排版</t>
+  </si>
+  <si>
+    <t>固定排版</t>
+  </si>
+  <si>
+    <t>所有元素在固定位置</t>
+  </si>
+  <si>
+    <t>预设排版</t>
+  </si>
+  <si>
+    <t>预设一些排版方式，更换排版方式后，所有物件位置自动发生变化</t>
+  </si>
+  <si>
+    <t>背景绑定排版</t>
+  </si>
+  <si>
+    <t>选择纯色/渐变背景时使用自定义排版，选择背景图片时，使用固定排版方式</t>
+  </si>
+  <si>
+    <t>贺卡音乐</t>
+  </si>
+  <si>
+    <t>更换音乐 - 预设</t>
+  </si>
+  <si>
+    <t>可在几首预设音乐中选择一首，选择时提供试听</t>
+  </si>
+  <si>
+    <t>贺卡美化</t>
+  </si>
+  <si>
+    <t>遮罩特效</t>
+  </si>
+  <si>
+    <t>可增加下雪，星星闪，水泡等遮罩特效</t>
+  </si>
+  <si>
+    <t>动画</t>
+  </si>
+  <si>
+    <t>对小物件增加闪烁、摆动、闪光等动画</t>
+  </si>
+  <si>
+    <t>贺卡查看</t>
+  </si>
+  <si>
+    <t>点击查看网页</t>
+  </si>
+  <si>
+    <t>收信者点击收到的卡片地址，点击后可查看收到的贺卡，增加“我也想发送贺卡”功能，点击后跳转进贺卡编辑器</t>
+  </si>
+  <si>
+    <t>额外功能</t>
+  </si>
+  <si>
+    <t>心愿分享</t>
+  </si>
+  <si>
+    <t>将喜欢的物品链接打包进贺卡里，收信者打开后可以查看物品链接</t>
+  </si>
+  <si>
+    <t>产品推广</t>
+  </si>
+  <si>
+    <t>收到贺卡后注册相应地网站后可使用贺卡编辑器</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>点击按钮，输入发信人名称，输入收信人地址，发送贺卡到好友邮箱，可点击查看</t>
+  </si>
+  <si>
+    <t>好像不能做，可以直接用mailto</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>这个好像不能做，没有服务器</t>
+  </si>
+  <si>
+    <t>mid-high</t>
+  </si>
+  <si>
+    <t>very very low</t>
+  </si>
+  <si>
+    <t>这个可以做打勾</t>
+  </si>
+  <si>
+    <t>这个做完了打勾</t>
+  </si>
+  <si>
+    <t>这个不能做打叉</t>
   </si>
 </sst>
 </file>
@@ -147,15 +270,63 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCFC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -163,14 +334,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -178,6 +413,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCFC8"/>
+      <color rgb="FF9FEFEE"/>
+      <color rgb="FFFFA09A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -449,153 +691,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="42.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="61" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="C9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="B21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Feature List.xlsx
+++ b/Feature List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>功能</t>
   </si>
@@ -249,13 +249,16 @@
   </si>
   <si>
     <t>这个不能做打叉</t>
+  </si>
+  <si>
+    <t>×</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,6 +269,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="STSong"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="STSong"/>
       <charset val="134"/>
     </font>
@@ -366,14 +376,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -386,6 +393,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -406,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -704,35 +717,35 @@
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="61" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="6" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -817,6 +830,9 @@
       <c r="E7" s="13" t="s">
         <v>69</v>
       </c>
+      <c r="H7" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
@@ -941,7 +957,7 @@
       </c>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="9" t="s">
         <v>45</v>
@@ -954,7 +970,7 @@
       </c>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
@@ -969,7 +985,7 @@
       </c>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>50</v>
       </c>
@@ -984,7 +1000,7 @@
       </c>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="9" t="s">
         <v>53</v>
@@ -997,7 +1013,7 @@
       </c>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
@@ -1013,8 +1029,11 @@
       <c r="E21" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="12" t="s">
         <v>35</v>
@@ -1027,7 +1046,7 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="8" t="s">
         <v>37</v>
@@ -1038,7 +1057,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="12" t="s">
         <v>38</v>
@@ -1051,7 +1070,7 @@
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
         <v>55</v>
       </c>
@@ -1066,7 +1085,7 @@
       </c>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
@@ -1081,7 +1100,7 @@
       </c>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="9" t="s">
         <v>61</v>

--- a/Feature List.xlsx
+++ b/Feature List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>功能</t>
   </si>
@@ -249,16 +249,13 @@
   </si>
   <si>
     <t>这个不能做打叉</t>
-  </si>
-  <si>
-    <t>×</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,13 +266,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="STSong"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="STSong"/>
       <charset val="134"/>
     </font>
@@ -376,11 +366,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -393,9 +386,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -416,9 +406,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -717,35 +704,35 @@
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="61" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -830,9 +817,6 @@
       <c r="E7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
@@ -957,7 +941,7 @@
       </c>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="9" t="s">
         <v>45</v>
@@ -970,7 +954,7 @@
       </c>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
@@ -985,7 +969,7 @@
       </c>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>50</v>
       </c>
@@ -1000,7 +984,7 @@
       </c>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="9" t="s">
         <v>53</v>
@@ -1013,7 +997,7 @@
       </c>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
@@ -1029,11 +1013,8 @@
       <c r="E21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="12" t="s">
         <v>35</v>
@@ -1046,7 +1027,7 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="8" t="s">
         <v>37</v>
@@ -1057,7 +1038,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="12" t="s">
         <v>38</v>
@@ -1070,7 +1051,7 @@
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
         <v>55</v>
       </c>
@@ -1085,7 +1066,7 @@
       </c>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
@@ -1100,7 +1081,7 @@
       </c>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="9" t="s">
         <v>61</v>
